--- a/sI_Excel/Taijune.xlsx
+++ b/sI_Excel/Taijune.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\sI_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\sI_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA129005-5C7A-40FE-8E6B-8C62A359CBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C377C518-B671-453B-8A15-C311CF9AA1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="0" windowWidth="13824" windowHeight="12060" xr2:uid="{B51F12A6-E594-4589-A0C5-613B74C053E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B51F12A6-E594-4589-A0C5-613B74C053E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B807A042-1160-45FD-8C46-A77A677A96F8}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="4">
-        <v>4238</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.4">
